--- a/natmiOut/OldD7/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.116234165429755</v>
+        <v>0.1645843333333333</v>
       </c>
       <c r="H2">
-        <v>0.116234165429755</v>
+        <v>0.493753</v>
       </c>
       <c r="I2">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="J2">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>9.422114966676761</v>
+        <v>1.628421</v>
       </c>
       <c r="N2">
-        <v>9.422114966676761</v>
+        <v>4.885263</v>
       </c>
       <c r="O2">
-        <v>0.351447299020941</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="P2">
-        <v>0.351447299020941</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="Q2">
-        <v>1.095171669734877</v>
+        <v>0.268012584671</v>
       </c>
       <c r="R2">
-        <v>1.095171669734877</v>
+        <v>2.412113262039</v>
       </c>
       <c r="S2">
-        <v>0.01093242438062804</v>
+        <v>0.001684689432335392</v>
       </c>
       <c r="T2">
-        <v>0.01093242438062804</v>
+        <v>0.001684689432335392</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.116234165429755</v>
+        <v>0.1645843333333333</v>
       </c>
       <c r="H3">
-        <v>0.116234165429755</v>
+        <v>0.493753</v>
       </c>
       <c r="I3">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="J3">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.523375653680503</v>
+        <v>9.459065000000001</v>
       </c>
       <c r="N3">
-        <v>0.523375653680503</v>
+        <v>28.377195</v>
       </c>
       <c r="O3">
-        <v>0.01952204579437525</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="P3">
-        <v>0.01952204579437525</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="Q3">
-        <v>0.06083413231180574</v>
+        <v>1.556813906981667</v>
       </c>
       <c r="R3">
-        <v>0.06083413231180574</v>
+        <v>14.011325162835</v>
       </c>
       <c r="S3">
-        <v>0.0006072696816755114</v>
+        <v>0.009785913375763133</v>
       </c>
       <c r="T3">
-        <v>0.0006072696816755114</v>
+        <v>0.009785913375763131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.116234165429755</v>
+        <v>0.1645843333333333</v>
       </c>
       <c r="H4">
-        <v>0.116234165429755</v>
+        <v>0.493753</v>
       </c>
       <c r="I4">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="J4">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.8639769525187</v>
+        <v>0.6418243333333334</v>
       </c>
       <c r="N4">
-        <v>16.8639769525187</v>
+        <v>1.925473</v>
       </c>
       <c r="O4">
-        <v>0.6290306551846837</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="P4">
-        <v>0.6290306551846837</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="Q4">
-        <v>1.960170286902634</v>
+        <v>0.1056342300187778</v>
       </c>
       <c r="R4">
-        <v>1.960170286902634</v>
+        <v>0.9507080701690001</v>
       </c>
       <c r="S4">
-        <v>0.01956717291628328</v>
+        <v>0.0006640019207455411</v>
       </c>
       <c r="T4">
-        <v>0.01956717291628328</v>
+        <v>0.0006640019207455411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.21809165958846</v>
+        <v>0.1645843333333333</v>
       </c>
       <c r="H5">
-        <v>3.21809165958846</v>
+        <v>0.493753</v>
       </c>
       <c r="I5">
-        <v>0.8612334317504547</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="J5">
-        <v>0.8612334317504547</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.422114966676761</v>
+        <v>21.96489266666667</v>
       </c>
       <c r="N5">
-        <v>9.422114966676761</v>
+        <v>65.894678</v>
       </c>
       <c r="O5">
-        <v>0.351447299020941</v>
+        <v>0.6518893670423564</v>
       </c>
       <c r="P5">
-        <v>0.351447299020941</v>
+        <v>0.6518893670423563</v>
       </c>
       <c r="Q5">
-        <v>30.32122958994609</v>
+        <v>3.615077216281556</v>
       </c>
       <c r="R5">
-        <v>30.32122958994609</v>
+        <v>32.535694946534</v>
       </c>
       <c r="S5">
-        <v>0.3026781634152332</v>
+        <v>0.02272386720504985</v>
       </c>
       <c r="T5">
-        <v>0.3026781634152332</v>
+        <v>0.02272386720504985</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.21809165958846</v>
+        <v>3.368329</v>
       </c>
       <c r="H6">
-        <v>3.21809165958846</v>
+        <v>10.104987</v>
       </c>
       <c r="I6">
-        <v>0.8612334317504547</v>
+        <v>0.7134020567608963</v>
       </c>
       <c r="J6">
-        <v>0.8612334317504547</v>
+        <v>0.7134020567608964</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.523375653680503</v>
+        <v>1.628421</v>
       </c>
       <c r="N6">
-        <v>0.523375653680503</v>
+        <v>4.885263</v>
       </c>
       <c r="O6">
-        <v>0.01952204579437525</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="P6">
-        <v>0.01952204579437525</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="Q6">
-        <v>1.684270825940885</v>
+        <v>5.485057678509</v>
       </c>
       <c r="R6">
-        <v>1.684270825940885</v>
+        <v>49.365519106581</v>
       </c>
       <c r="S6">
-        <v>0.01681303849427933</v>
+        <v>0.03447830152482418</v>
       </c>
       <c r="T6">
-        <v>0.01681303849427933</v>
+        <v>0.03447830152482419</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.21809165958846</v>
+        <v>3.368329</v>
       </c>
       <c r="H7">
-        <v>3.21809165958846</v>
+        <v>10.104987</v>
       </c>
       <c r="I7">
-        <v>0.8612334317504547</v>
+        <v>0.7134020567608963</v>
       </c>
       <c r="J7">
-        <v>0.8612334317504547</v>
+        <v>0.7134020567608964</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.8639769525187</v>
+        <v>9.459065000000001</v>
       </c>
       <c r="N7">
-        <v>16.8639769525187</v>
+        <v>28.377195</v>
       </c>
       <c r="O7">
-        <v>0.6290306551846837</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="P7">
-        <v>0.6290306551846837</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="Q7">
-        <v>54.26982357839245</v>
+        <v>31.861242952385</v>
       </c>
       <c r="R7">
-        <v>54.26982357839245</v>
+        <v>286.751186571465</v>
       </c>
       <c r="S7">
-        <v>0.5417422298409421</v>
+        <v>0.2002752944188948</v>
       </c>
       <c r="T7">
-        <v>0.5417422298409421</v>
+        <v>0.2002752944188948</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.402282092126498</v>
+        <v>3.368329</v>
       </c>
       <c r="H8">
-        <v>0.402282092126498</v>
+        <v>10.104987</v>
       </c>
       <c r="I8">
-        <v>0.1076597012709584</v>
+        <v>0.7134020567608963</v>
       </c>
       <c r="J8">
-        <v>0.1076597012709584</v>
+        <v>0.7134020567608964</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.422114966676761</v>
+        <v>0.6418243333333334</v>
       </c>
       <c r="N8">
-        <v>9.422114966676761</v>
+        <v>1.925473</v>
       </c>
       <c r="O8">
-        <v>0.351447299020941</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="P8">
-        <v>0.351447299020941</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="Q8">
-        <v>3.790348121051117</v>
+        <v>2.161875514872333</v>
       </c>
       <c r="R8">
-        <v>3.790348121051117</v>
+        <v>19.456879633851</v>
       </c>
       <c r="S8">
-        <v>0.03783671122507971</v>
+        <v>0.01358924558860143</v>
       </c>
       <c r="T8">
-        <v>0.03783671122507971</v>
+        <v>0.01358924558860143</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.402282092126498</v>
+        <v>3.368329</v>
       </c>
       <c r="H9">
-        <v>0.402282092126498</v>
+        <v>10.104987</v>
       </c>
       <c r="I9">
-        <v>0.1076597012709584</v>
+        <v>0.7134020567608963</v>
       </c>
       <c r="J9">
-        <v>0.1076597012709584</v>
+        <v>0.7134020567608964</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.523375653680503</v>
+        <v>21.96489266666667</v>
       </c>
       <c r="N9">
-        <v>0.523375653680503</v>
+        <v>65.894678</v>
       </c>
       <c r="O9">
-        <v>0.01952204579437525</v>
+        <v>0.6518893670423564</v>
       </c>
       <c r="P9">
-        <v>0.01952204579437525</v>
+        <v>0.6518893670423563</v>
       </c>
       <c r="Q9">
-        <v>0.2105446529306662</v>
+        <v>73.98498495102066</v>
       </c>
       <c r="R9">
-        <v>0.2105446529306662</v>
+        <v>665.864864559186</v>
       </c>
       <c r="S9">
-        <v>0.00210173761842041</v>
+        <v>0.465059215228576</v>
       </c>
       <c r="T9">
-        <v>0.00210173761842041</v>
+        <v>0.4650592152285759</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.188588333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.565765</v>
+      </c>
+      <c r="I10">
+        <v>0.2517394713052097</v>
+      </c>
+      <c r="J10">
+        <v>0.2517394713052098</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.628421</v>
+      </c>
+      <c r="N10">
+        <v>4.885263</v>
+      </c>
+      <c r="O10">
+        <v>0.048329411442081</v>
+      </c>
+      <c r="P10">
+        <v>0.048329411442081</v>
+      </c>
+      <c r="Q10">
+        <v>1.935522202355</v>
+      </c>
+      <c r="R10">
+        <v>17.419699821195</v>
+      </c>
+      <c r="S10">
+        <v>0.01216642048492142</v>
+      </c>
+      <c r="T10">
+        <v>0.01216642048492143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.402282092126498</v>
-      </c>
-      <c r="H10">
-        <v>0.402282092126498</v>
-      </c>
-      <c r="I10">
-        <v>0.1076597012709584</v>
-      </c>
-      <c r="J10">
-        <v>0.1076597012709584</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>16.8639769525187</v>
-      </c>
-      <c r="N10">
-        <v>16.8639769525187</v>
-      </c>
-      <c r="O10">
-        <v>0.6290306551846837</v>
-      </c>
-      <c r="P10">
-        <v>0.6290306551846837</v>
-      </c>
-      <c r="Q10">
-        <v>6.784075930032268</v>
-      </c>
-      <c r="R10">
-        <v>6.784075930032268</v>
-      </c>
-      <c r="S10">
-        <v>0.06772125242745831</v>
-      </c>
-      <c r="T10">
-        <v>0.06772125242745831</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.188588333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.565765</v>
+      </c>
+      <c r="I11">
+        <v>0.2517394713052097</v>
+      </c>
+      <c r="J11">
+        <v>0.2517394713052098</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>9.459065000000001</v>
+      </c>
+      <c r="N11">
+        <v>28.377195</v>
+      </c>
+      <c r="O11">
+        <v>0.2807327123897247</v>
+      </c>
+      <c r="P11">
+        <v>0.2807327123897247</v>
+      </c>
+      <c r="Q11">
+        <v>11.24293430324167</v>
+      </c>
+      <c r="R11">
+        <v>101.186408729175</v>
+      </c>
+      <c r="S11">
+        <v>0.07067150459506681</v>
+      </c>
+      <c r="T11">
+        <v>0.07067150459506681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.188588333333333</v>
+      </c>
+      <c r="H12">
+        <v>3.565765</v>
+      </c>
+      <c r="I12">
+        <v>0.2517394713052097</v>
+      </c>
+      <c r="J12">
+        <v>0.2517394713052098</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.6418243333333334</v>
+      </c>
+      <c r="N12">
+        <v>1.925473</v>
+      </c>
+      <c r="O12">
+        <v>0.01904850912583786</v>
+      </c>
+      <c r="P12">
+        <v>0.01904850912583786</v>
+      </c>
+      <c r="Q12">
+        <v>0.7628649146494446</v>
+      </c>
+      <c r="R12">
+        <v>6.865784231845001</v>
+      </c>
+      <c r="S12">
+        <v>0.004795261616490886</v>
+      </c>
+      <c r="T12">
+        <v>0.004795261616490886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.188588333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.565765</v>
+      </c>
+      <c r="I13">
+        <v>0.2517394713052097</v>
+      </c>
+      <c r="J13">
+        <v>0.2517394713052098</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.96489266666667</v>
+      </c>
+      <c r="N13">
+        <v>65.894678</v>
+      </c>
+      <c r="O13">
+        <v>0.6518893670423564</v>
+      </c>
+      <c r="P13">
+        <v>0.6518893670423563</v>
+      </c>
+      <c r="Q13">
+        <v>26.10721516651889</v>
+      </c>
+      <c r="R13">
+        <v>234.96493649867</v>
+      </c>
+      <c r="S13">
+        <v>0.1641062846087306</v>
+      </c>
+      <c r="T13">
+        <v>0.1641062846087306</v>
       </c>
     </row>
   </sheetData>
